--- a/diagrams/charts.xlsx
+++ b/diagrams/charts.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgorG\Desktop\diploma-work-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgorG\Desktop\diploma-work-4\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17580" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Среда разработки</t>
   </si>
@@ -91,6 +94,133 @@
   </si>
   <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>Сильные стороны</t>
+  </si>
+  <si>
+    <t>Слабые стороны</t>
+  </si>
+  <si>
+    <t>Возможности</t>
+  </si>
+  <si>
+    <t>Угрозы</t>
+  </si>
+  <si>
+    <t>Основные этапы</t>
+  </si>
+  <si>
+    <t>Содержание работ</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>Выбор направления
+исследования</t>
+  </si>
+  <si>
+    <t>Выбор темы исследования</t>
+  </si>
+  <si>
+    <t>Исполнители</t>
+  </si>
+  <si>
+    <t>Исполнитель, руководитель</t>
+  </si>
+  <si>
+    <t>Подбор материалов по теме</t>
+  </si>
+  <si>
+    <t>Изучение материалов по теме</t>
+  </si>
+  <si>
+    <t>Выбор направления</t>
+  </si>
+  <si>
+    <t>Календарное планирование работ по теме</t>
+  </si>
+  <si>
+    <t>Проектирование структуры и разработка ИС</t>
+  </si>
+  <si>
+    <t>Проектирование структуры ИС</t>
+  </si>
+  <si>
+    <t>Разработка ИС</t>
+  </si>
+  <si>
+    <t>Тестирование ИС</t>
+  </si>
+  <si>
+    <t>Обобщение и оценка результатов</t>
+  </si>
+  <si>
+    <t>Оценка эффективности полученных результатов</t>
+  </si>
+  <si>
+    <t>Прогноз экономических показателей</t>
+  </si>
+  <si>
+    <t>Оформление отчета по работе</t>
+  </si>
+  <si>
+    <t>Написание текста работы</t>
+  </si>
+  <si>
+    <t>№ работы</t>
+  </si>
+  <si>
+    <t>Составление диаграм, схем, таблиц</t>
+  </si>
+  <si>
+    <t>Уровень</t>
+  </si>
+  <si>
+    <t>Улучшения в процессе</t>
+  </si>
+  <si>
+    <t>Отражение качественных изменений в количественных показателях (BSC-KPI)</t>
+  </si>
+  <si>
+    <t>Финансовые цели</t>
+  </si>
+  <si>
+    <t>Рыночные цели</t>
+  </si>
+  <si>
+    <t>Внутренние цели</t>
+  </si>
+  <si>
+    <t>Сбор пожертвований</t>
+  </si>
+  <si>
+    <t>Доход от рекламы внутри приложения</t>
+  </si>
+  <si>
+    <t>Формирование рынка интеллектуальной обработки изображений</t>
+  </si>
+  <si>
+    <t>Увеличение скорости обработки</t>
+  </si>
+  <si>
+    <t>Сумма пожертвований в год - 100 тысяч рублей</t>
+  </si>
+  <si>
+    <t>Количество запросов на обработку в месяц - 200000</t>
+  </si>
+  <si>
+    <t>Время на обработку одного изображения - 3 секунды</t>
+  </si>
+  <si>
+    <t>Повышение качества обработки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма от доходов на рекламе в год - 300 тысяч рублей </t>
+  </si>
+  <si>
+    <t>Потери на проверочном наборе &lt; 0.018</t>
   </si>
 </sst>
 </file>
@@ -98,9 +228,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +238,37 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,25 +302,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,69 +687,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -534,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,50 +778,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>12000</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
         <v>12150</v>
       </c>
@@ -596,4 +829,501 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="11">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>